--- a/Torch runner 2/Torch runner 2/Stage001.xlsx
+++ b/Torch runner 2/Torch runner 2/Stage001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\Torch runer\Torch runner 2\Torch runner 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\kanataD\Torch runner 2\Torch runner 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,18 +90,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -115,14 +108,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -150,7 +136,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -164,14 +164,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -193,6 +186,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -474,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BQ19" sqref="BQ19"/>
+    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
+      <selection activeCell="DB5" sqref="DB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1987,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="CR3" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CS3" s="1">
         <v>0</v>
@@ -2023,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="DD3" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="DE3" s="1">
         <v>0</v>
@@ -2616,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="DA4" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="DB4" s="1">
         <v>0</v>
@@ -3206,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="CW5" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CX5" s="1">
         <v>0</v>
@@ -3547,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -3583,44 +3590,44 @@
         <v>0</v>
       </c>
       <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
         <v>5</v>
       </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
       <c r="AM6" s="1">
         <v>0</v>
       </c>
@@ -3637,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="1">
         <v>0</v>
@@ -3748,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -3775,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="CL6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CM6" s="1">
         <v>0</v>
@@ -3790,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="CQ6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CR6" s="1">
         <v>0</v>
@@ -4158,65 +4165,65 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
         <v>1</v>
       </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
       <c r="AC7" s="1">
         <v>0</v>
       </c>
       <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1">
         <v>5</v>
       </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>0</v>
-      </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
@@ -4227,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>0</v>
@@ -4254,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
@@ -4278,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="BE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="1">
         <v>0</v>
@@ -4305,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="1">
         <v>0</v>
@@ -4314,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="BQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR7" s="1">
         <v>0</v>
@@ -4344,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="CA7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CB7" s="1">
         <v>0</v>
@@ -4362,13 +4369,13 @@
         <v>0</v>
       </c>
       <c r="CG7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CH7" s="1">
         <v>0</v>
       </c>
       <c r="CI7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CJ7" s="1">
         <v>0</v>
@@ -4377,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="CL7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CM7" s="1">
         <v>0</v>
@@ -4772,13 +4779,13 @@
         <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -4805,20 +4812,20 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
         <v>5</v>
       </c>
-      <c r="AG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0</v>
-      </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -4829,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>0</v>
@@ -4853,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW8" s="1">
         <v>0</v>
@@ -4880,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="1">
         <v>0</v>
@@ -4895,41 +4902,41 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BK8" s="1">
         <v>0</v>
       </c>
       <c r="BL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="1">
         <v>1</v>
       </c>
-      <c r="BM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="1">
-        <v>0</v>
-      </c>
       <c r="BV8" s="1">
         <v>0</v>
       </c>
@@ -4958,19 +4965,19 @@
         <v>0</v>
       </c>
       <c r="CE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="1">
         <v>5</v>
       </c>
-      <c r="CF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="1">
-        <v>0</v>
-      </c>
       <c r="CH8" s="1">
         <v>0</v>
       </c>
       <c r="CI8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CJ8" s="1">
         <v>0</v>
@@ -4979,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="CL8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CM8" s="1">
         <v>0</v>
@@ -5018,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="CY8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CZ8" s="1">
         <v>0</v>
@@ -5362,65 +5369,65 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
         <v>1</v>
       </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
       <c r="AC9" s="1">
         <v>0</v>
       </c>
       <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
         <v>5</v>
       </c>
-      <c r="AE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
@@ -5431,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>0</v>
@@ -5470,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
@@ -5494,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="1">
         <v>0</v>
@@ -5539,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BY9" s="1">
         <v>0</v>
@@ -5554,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CD9" s="1">
         <v>0</v>
@@ -5563,10 +5570,10 @@
         <v>0</v>
       </c>
       <c r="CF9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CG9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CH9" s="1">
         <v>0</v>
@@ -5581,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="CL9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CM9" s="1">
         <v>0</v>
@@ -5955,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -5991,44 +5998,44 @@
         <v>0</v>
       </c>
       <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
         <v>5</v>
       </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>0</v>
-      </c>
       <c r="AM10" s="1">
         <v>0</v>
       </c>
@@ -6045,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="1">
         <v>0</v>
@@ -6078,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="BC10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>0</v>
@@ -6096,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10" s="1">
         <v>0</v>
@@ -6114,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="BO10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP10" s="1">
         <v>0</v>
@@ -6132,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="BU10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV10" s="1">
         <v>0</v>
@@ -6165,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="CF10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CG10" s="1">
         <v>0</v>
@@ -6183,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="CL10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CM10" s="1">
         <v>0</v>
@@ -6198,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="CQ10" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CR10" s="1">
         <v>0</v>
@@ -6213,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="CV10" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CW10" s="1">
         <v>0</v>
@@ -6519,36 +6526,36 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:GR10">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
-      <formula>3</formula>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="between">
+      <formula>7</formula>
+      <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="between">
       <formula>4</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
-      <formula>7</formula>
-      <formula>7</formula>
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="between">
+      <formula>6</formula>
+      <formula>6</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="4" operator="between">
       <formula>5</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
-      <formula>6</formula>
-      <formula>6</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:DQ10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
